--- a/src/test/resources/datadriven/data.xlsx
+++ b/src/test/resources/datadriven/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375CC65C-8135-40B1-B232-A7249964CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDED9E0-9977-40EE-BF0C-D2C27354C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>Sauce Labs Backpack</t>
   </si>
   <si>
-    <t>choucair</t>
-  </si>
-  <si>
     <t>Sauce Labs Bike Light</t>
   </si>
   <si>
     <t>nombreProducto2</t>
+  </si>
+  <si>
+    <t>pruebas</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -473,7 +473,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>470003</v>
